--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200316.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200316.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\beijing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558AE09-D62E-470A-903C-552C8347D807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10306,7 +10312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10483,6 +10489,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10745,54 +10754,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.05859375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.29296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.8203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.17578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.64453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.05859375" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
-    <col min="12" max="16" width="12.453125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.26953125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.6328125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="67.81640625" style="14" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.52734375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.29296875" style="14" customWidth="1"/>
+    <col min="12" max="16" width="12.46875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="8.703125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.87890625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11.29296875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.64453125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="67.8203125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.64453125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="16.17578125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.05859375" style="12" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="12.81640625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="19.08984375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.17578125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="12.8203125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="19.05859375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="40" max="40" width="5.05859375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15.75">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="198">
+    <row r="2" spans="1:40" ht="26" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -10946,7 +10955,7 @@
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N2" s="17">
         <v>36</v>
@@ -10988,7 +10997,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="198">
+    <row r="3" spans="1:40" ht="26" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11050,7 +11059,7 @@
       </c>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:40" ht="198">
+    <row r="4" spans="1:40" ht="26" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -11112,7 +11121,7 @@
       </c>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:40" ht="198">
+    <row r="5" spans="1:40" ht="26" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11174,7 +11183,7 @@
       </c>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:40" ht="198">
+    <row r="6" spans="1:40" ht="26" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -11236,7 +11245,7 @@
       </c>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:40" ht="198">
+    <row r="7" spans="1:40" ht="26" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11298,7 +11307,7 @@
       </c>
       <c r="AD7" s="13"/>
     </row>
-    <row r="8" spans="1:40" ht="198">
+    <row r="8" spans="1:40" ht="26" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -11360,7 +11369,7 @@
       </c>
       <c r="AD8" s="13"/>
     </row>
-    <row r="9" spans="1:40" ht="198">
+    <row r="9" spans="1:40" ht="26" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11422,7 +11431,7 @@
       </c>
       <c r="AD9" s="13"/>
     </row>
-    <row r="10" spans="1:40" ht="198">
+    <row r="10" spans="1:40" ht="26" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -11484,7 +11493,7 @@
       </c>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:40" ht="198">
+    <row r="11" spans="1:40" ht="26" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11546,7 +11555,7 @@
       </c>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:40" ht="198">
+    <row r="12" spans="1:40" ht="26" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -11608,7 +11617,7 @@
       </c>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:40" ht="198">
+    <row r="13" spans="1:40" ht="26" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11670,7 +11679,7 @@
       </c>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:40" ht="198">
+    <row r="14" spans="1:40" ht="26" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -11732,7 +11741,7 @@
       </c>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:40" ht="198">
+    <row r="15" spans="1:40" ht="26" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11794,7 +11803,7 @@
       </c>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:40" ht="198">
+    <row r="16" spans="1:40" ht="26" customHeight="1">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -11854,7 +11863,7 @@
       </c>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30" ht="198">
+    <row r="17" spans="1:30" ht="26" customHeight="1">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -11916,7 +11925,7 @@
       </c>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30" ht="198">
+    <row r="18" spans="1:30" ht="26" customHeight="1">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -11978,7 +11987,7 @@
       </c>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" ht="198">
+    <row r="19" spans="1:30" ht="26" customHeight="1">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12040,7 +12049,7 @@
       </c>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="198">
+    <row r="20" spans="1:30" ht="26" customHeight="1">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -12104,7 +12113,7 @@
       </c>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30" ht="198">
+    <row r="21" spans="1:30" ht="26" customHeight="1">
       <c r="A21" s="19">
         <v>22</v>
       </c>
@@ -12174,7 +12183,7 @@
       </c>
       <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="1:30" ht="16.2">
+    <row r="22" spans="1:30" ht="15.75">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
@@ -12203,56 +12212,56 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC34:AC1048576 AC29 AC2:AC22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC34:AC1048576 AC29 AC2:AC22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B29 B34:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B29 B34:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:R29 I34:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:R29 I34:R1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK34:AK1048576 AE34:AE1048576 AA34:AA1048576 AE29 AK29 AA29 AA2:AA22 AE2:AE22 AK2:AK22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK34:AK1048576 AE34:AE1048576 AA34:AA1048576 AE29 AK29 AA29 AA2:AA22 AE2:AE22 AK2:AK22" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG34:AG1048576 AM34:AM1048576 AG29 AM29 AM2:AM22 AG2:AG22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG34:AG1048576 AM34:AM1048576 AG29 AM29 AM2:AM22 AG2:AG22" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29 H34:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29 H34:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($G29)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29 G34:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29 G34:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($F29)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="V3" r:id="rId2"/>
-    <hyperlink ref="V4" r:id="rId3"/>
-    <hyperlink ref="V5" r:id="rId4"/>
-    <hyperlink ref="V6" r:id="rId5"/>
-    <hyperlink ref="V7" r:id="rId6"/>
-    <hyperlink ref="V8" r:id="rId7"/>
-    <hyperlink ref="V9" r:id="rId8"/>
-    <hyperlink ref="V10" r:id="rId9"/>
-    <hyperlink ref="V11" r:id="rId10"/>
-    <hyperlink ref="V12" r:id="rId11"/>
-    <hyperlink ref="V13" r:id="rId12"/>
-    <hyperlink ref="V14" r:id="rId13"/>
-    <hyperlink ref="V15" r:id="rId14"/>
-    <hyperlink ref="V16" r:id="rId15"/>
-    <hyperlink ref="V17" r:id="rId16"/>
-    <hyperlink ref="V18" r:id="rId17"/>
-    <hyperlink ref="V19" r:id="rId18"/>
-    <hyperlink ref="V20" r:id="rId19"/>
-    <hyperlink ref="V21" r:id="rId20"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="V19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="V20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -12265,7 +12274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -12273,10 +12282,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
